--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -1,51 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alistair\Documents\Uni\SecondSemester\IFB299\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schech\Documents\Uni\Uni\Second Year\IFB299\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
-    <t>Elapsed Time</t>
+    <t>Sprint Days Remaining</t>
   </si>
   <si>
-    <t>Actual tasks remaining</t>
+    <t>Ideal Tasks Remaining</t>
   </si>
   <si>
-    <t>ideal tasks remaining</t>
+    <t>Actual Tasks Remaining</t>
+  </si>
+  <si>
+    <t>Sprints completed</t>
+  </si>
+  <si>
+    <t>Actual Story Points Remaining</t>
+  </si>
+  <si>
+    <t>Expected Story Points Remaining</t>
+  </si>
+  <si>
+    <t>Release Burndown</t>
+  </si>
+  <si>
+    <t>Sprint 1 Burndown</t>
+  </si>
+  <si>
+    <t>Sprint 2 Burndown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,23 +126,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -149,7 +214,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -162,8 +227,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU" b="1"/>
-              <a:t>Burndown Chart</a:t>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 1 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -181,7 +254,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -204,15 +277,218 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Burn down chart'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual tasks remaining</c:v>
+                  <c:v>Ideal Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$13:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-420C-4A71-9971-542ECB6C951A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Tasks Remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -243,82 +519,82 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$25</c:f>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$25</c:f>
+              <c:f>'Burn down chart'!$C$13:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -327,6 +603,36 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,232 +640,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-603E-40A9-AB49-1A20410836C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ideal tasks remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="00B0F0"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B0F0"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-603E-40A9-AB49-1A20410836C2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$5:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-603E-40A9-AB49-1A20410836C2}"/>
+              <c16:uniqueId val="{00000005-420C-4A71-9971-542ECB6C951A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -573,11 +654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="386083520"/>
-        <c:axId val="386076960"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="386083520"/>
+        <c:axId val="590107240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,20 +684,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" b="1"/>
-                  <a:t>Actual v Ideal tasks remaining</a:t>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.37288051491178364"/>
-              <c:y val="0.81042828423664814"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -683,7 +761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386076960"/>
+        <c:crossAx val="590108552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,10 +769,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386076960"/>
+        <c:axId val="590108552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -719,7 +796,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -732,20 +809,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" b="1"/>
-                  <a:t>Tasks remaining</a:t>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.8534605896996483E-2"/>
-              <c:y val="0.27303977652686662"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -759,7 +833,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -806,7 +880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386083520"/>
+        <c:crossAx val="590107240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -866,7 +940,2156 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Release Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Story Points Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DFFC-4379-83D1-635B95F1AFF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Story Points Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DFFC-4379-83D1-635B95F1AFF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sprints Completed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Story Points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 1 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$13:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91EE-4C26-92D0-B28024E97846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$13:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91EE-4C26-92D0-B28024E97846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 2 Burn</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Down C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>hart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$B$38:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1CA-4C1E-A689-320272AAB8EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burn down chart'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Tasks Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burn down chart'!$A$13:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn down chart'!$C$38:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1CA-4C1E-A689-320272AAB8EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="590107240"/>
+        <c:axId val="590108552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="590107240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Days</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaning</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590108552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590108552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590107240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="43137"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -926,8 +3149,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1035,6 +3378,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1045,6 +3393,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1076,6 +3429,1557 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1433,27 +5337,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B486C4-F0E9-47AF-A7B0-36E99E0AB20D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1462,6 +5368,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1162782</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>87922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7627425B-05C9-466C-8C25-B737A77B6961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404446</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>140678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1156920</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729CD140-14BC-461A-8963-88CB2DE1A2E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1487,7 +5507,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1499,7 +5519,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1546,23 +5566,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1598,23 +5601,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1766,239 +5752,719 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102:C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="29.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" s="1">
+        <v>240</v>
+      </c>
+      <c r="C3" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="C13" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="14" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
         <v>57</v>
       </c>
-      <c r="D6">
+      <c r="C14" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7">
+    <row r="15" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1">
         <v>52</v>
       </c>
-      <c r="D7" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2">
-        <f>D7-3</f>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B15-3</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <f>D8-3</f>
+      <c r="C16" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B16-3</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D25" si="0">D9-3</f>
+      <c r="C17" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ref="B18:B33" si="0">B17-3</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C18" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2">
+      <c r="C19" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2">
+      <c r="C20" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2">
+      <c r="C21" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="C22" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2">
+      <c r="C23" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2">
+      <c r="C24" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2">
+      <c r="C25" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2">
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2">
+      <c r="C27" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2">
+      <c r="C28" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2">
+      <c r="C29" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2">
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>20</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C32" s="8">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>65</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
+        <v>61</v>
+      </c>
+      <c r="C39" s="1">
+        <v>62</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>18</v>
+      </c>
+      <c r="B40" s="6">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1">
+        <v>58</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>17</v>
+      </c>
+      <c r="B41" s="6">
+        <v>55</v>
+      </c>
+      <c r="C41" s="7">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="6">
+        <v>52</v>
+      </c>
+      <c r="C42" s="6">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6">
+        <v>49</v>
+      </c>
+      <c r="C43" s="6">
+        <v>47</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" s="6">
+        <v>46</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" s="6">
+        <v>43</v>
+      </c>
+      <c r="C45" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6">
+        <v>40</v>
+      </c>
+      <c r="C46" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" s="6">
+        <v>37</v>
+      </c>
+      <c r="C47" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="6">
+        <v>34</v>
+      </c>
+      <c r="C48" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6">
+        <v>31</v>
+      </c>
+      <c r="C49" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6">
+        <v>28</v>
+      </c>
+      <c r="C50" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" s="6">
+        <v>24</v>
+      </c>
+      <c r="C51" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6">
+        <v>20</v>
+      </c>
+      <c r="C52" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="6">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="6">
+        <v>14</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="6">
+        <v>11</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="6">
+        <v>8</v>
+      </c>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:C36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
